--- a/Bitacoras/NRC_124_Grupo_43/Bitacora_Laboratorio_Parcial_02_NRC_125.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Bitacora_Laboratorio_Parcial_02_NRC_125.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F90A35-B832-4D14-8022-6CEF4C8F2892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF06FEA-A335-4649-9380-92643C29ED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04245548-DE8E-4B3A-ABC0-A87ABB1250CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentrado" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Concentrado!$A$1:$Q$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Apaterno</t>
   </si>
@@ -207,6 +210,9 @@
   </si>
   <si>
     <t>Faltas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> j</t>
   </si>
 </sst>
 </file>
@@ -574,12 +580,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09218EC-5960-4330-A402-3B53E6B6B2B6}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5265" ySplit="720" topLeftCell="P1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="6705" ySplit="720" topLeftCell="I1" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomLeft" sqref="A1:D15"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -672,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>5</v>
@@ -694,11 +700,11 @@
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:O15" si="1">SUM(E2:N2)</f>
-        <v>27.5</v>
+        <v>42.5</v>
       </c>
       <c r="P2" s="1">
         <f>(O2/50)*10</f>
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -1256,9 +1262,8 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="P12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q12" s="1">
         <v>2</v>
@@ -1433,6 +1438,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q15" xr:uid="{C09218EC-5960-4330-A402-3B53E6B6B2B6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I15">
     <sortCondition ref="A2:A15"/>
   </sortState>
